--- a/biology/Médecine/Federal_Food,_Drug_and_Cosmetic_Act/Federal_Food,_Drug_and_Cosmetic_Act.xlsx
+++ b/biology/Médecine/Federal_Food,_Drug_and_Cosmetic_Act/Federal_Food,_Drug_and_Cosmetic_Act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Federal Food, Drug and Cosmetic Act est une loi fédérale américaine, signée en 1938 par le président Roosevelt[1], à la suite du scandale de l'année précédente lors duquel une centaine de personnes étaient décédées à la suite de l'ingestion de l'élixir sulfanilamide, médicament rendu toxique par la présence de diéthylène glycol[2]. Venant après le Pure Food and Drug Act de 1906, qui mènera à la création de la Food and Drug Administration (FDA), cette nouvelle loi vient renforcer les pouvoirs de l'administration fédérale et en particulier de la FDA en matière d'autorisation de mise sur le marché (AMM) des médicaments et produits cosmétiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Federal Food, Drug and Cosmetic Act est une loi fédérale américaine, signée en 1938 par le président Roosevelt, à la suite du scandale de l'année précédente lors duquel une centaine de personnes étaient décédées à la suite de l'ingestion de l'élixir sulfanilamide, médicament rendu toxique par la présence de diéthylène glycol. Venant après le Pure Food and Drug Act de 1906, qui mènera à la création de la Food and Drug Administration (FDA), cette nouvelle loi vient renforcer les pouvoirs de l'administration fédérale et en particulier de la FDA en matière d'autorisation de mise sur le marché (AMM) des médicaments et produits cosmétiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dispositions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rédigée principalement par le sénateur Royal S. Copeland (en), conseillé par le fonctionnaire de la FDA Walter Campbell, et avec l'appui du secrétaire d'État à l'Agriculture Henry Wallace, auteur d'un rapport majeur sur le scandale de l'élixir sulfanilamide, le Federal Food, Drug and Cosmetic Act fournit depuis le cadre principal de la réglementation sanitaire aux États-Unis. Au même moment, le Wheeler–Lea Act (en) donnant autorité à la Federal Trade Commission pour la réglementation de la publicité, limitait en partie la marge de manœuvre de la FDA.
 Affermi par la décision de la Cour suprême United States v. Dotterweich (en) (1943) instaurant la responsabilité pénale d'un dirigeant de firme pour adultération de produits, ce cadre général a été amendé à de nombreuses reprises, en particulier par l'amendement Kefauver Harris (en) de 1962 qui faisait suite au scandale de la thalidomide. Cet amendement contraignait les industriels à fournir la preuve de l'innocuité de leur médicament ainsi que de leur efficacité.
@@ -545,9 +559,11 @@
           <t>Liste d'amendements et de lois liées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le site de la FDCA décrit ces lois et amendements[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le site de la FDCA décrit ces lois et amendements.
 Amendements :
 Infant Formula Act of 1980, Public Law (PL) 96-359 (26 octobre 1980)
 Orphan Drug Act, PL 97-414 (4 janvier 1983)
@@ -570,7 +586,7 @@
 Minor Use and Minor Species Animal Health Act of 2004
 Food Allergen Labeling and Consumer Protection Act of 2004, PL 108-282 (August 2, 2004)
 Drug Efficacy Amendment ("Kefauver Harris Amendment") of 1962
-Autres lois[4] :
+Autres lois :
 Federal Food and Drugs Act of 1906 (repealed; for historical reference)
 Federal Meat Inspection Act (March 4, 1907)
 Federal Trade Commission Act (September 26, 1914)
